--- a/Input/VBWIMInputApercu.xlsx
+++ b/Input/VBWIMInputApercu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathevet\MATLAB\Projects\VirtualBridge2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{355426B4-3ACF-4622-9338-182EF7167D6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA591A-B239-4C3C-B43F-68F2D97B6659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40110" yWindow="4200" windowWidth="16545" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>ClassType</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>AGBBox.Mp.S40</t>
+    <t>ClassOW</t>
+  </si>
+  <si>
+    <t>Slab.Long.Wid9.Uni.Semi.p3.Mn.S25</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>993300</v>
+        <v>409</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>8</v>
